--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf22-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf22-Fgfrl1.xlsx
@@ -79,22 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fgf22</t>
+  </si>
+  <si>
+    <t>Fgfrl1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf22</t>
-  </si>
-  <si>
-    <t>Fgfrl1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -546,10 +546,10 @@
         <v>0.32843</v>
       </c>
       <c r="I2">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="J2">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.151350666666667</v>
+        <v>1.921622333333333</v>
       </c>
       <c r="N2">
-        <v>3.454052</v>
+        <v>5.764867</v>
       </c>
       <c r="O2">
-        <v>0.08771067958196711</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="P2">
-        <v>0.08771067958196713</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="Q2">
-        <v>0.1260460331511111</v>
+        <v>0.2103728076455555</v>
       </c>
       <c r="R2">
-        <v>1.13441429836</v>
+        <v>1.89335526881</v>
       </c>
       <c r="S2">
-        <v>0.04698880935232035</v>
+        <v>0.05670569999605313</v>
       </c>
       <c r="T2">
-        <v>0.04698880935232036</v>
+        <v>0.05670569999605313</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.32843</v>
       </c>
       <c r="I3">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="J3">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>31.103307</v>
       </c>
       <c r="O3">
-        <v>0.7898237184085691</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="P3">
-        <v>0.7898237184085692</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="Q3">
         <v>1.13502879089</v>
@@ -638,10 +638,10 @@
         <v>10.21525911801</v>
       </c>
       <c r="S3">
-        <v>0.4231283613708454</v>
+        <v>0.3059454442968311</v>
       </c>
       <c r="T3">
-        <v>0.4231283613708454</v>
+        <v>0.305945444296831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,40 +670,40 @@
         <v>0.32843</v>
       </c>
       <c r="I4">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="J4">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1322436666666667</v>
+        <v>0.1441973333333333</v>
       </c>
       <c r="N4">
-        <v>0.396731</v>
+        <v>0.432592</v>
       </c>
       <c r="O4">
-        <v>0.01007441278279348</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="P4">
-        <v>0.01007441278279349</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="Q4">
-        <v>0.01447759581444445</v>
+        <v>0.01578624339555555</v>
       </c>
       <c r="R4">
-        <v>0.13029836233</v>
+        <v>0.14207619056</v>
       </c>
       <c r="S4">
-        <v>0.005397115423611286</v>
+        <v>0.004255160122981608</v>
       </c>
       <c r="T4">
-        <v>0.005397115423611287</v>
+        <v>0.004255160122981608</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.32843</v>
       </c>
       <c r="I5">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="J5">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.100777333333333</v>
+        <v>1.182384</v>
       </c>
       <c r="N5">
-        <v>3.302332</v>
+        <v>3.547152</v>
       </c>
       <c r="O5">
-        <v>0.08385796853240096</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="P5">
-        <v>0.08385796853240098</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="Q5">
-        <v>0.1205094331955555</v>
+        <v>0.12944345904</v>
       </c>
       <c r="R5">
-        <v>1.08458489876</v>
+        <v>1.16499113136</v>
       </c>
       <c r="S5">
-        <v>0.04492481548224137</v>
+        <v>0.03489130575820741</v>
       </c>
       <c r="T5">
-        <v>0.04492481548224138</v>
+        <v>0.03489130575820741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,40 +794,40 @@
         <v>0.32843</v>
       </c>
       <c r="I6">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="J6">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3745466666666666</v>
+        <v>0.1863936666666667</v>
       </c>
       <c r="N6">
-        <v>1.12364</v>
+        <v>0.559181</v>
       </c>
       <c r="O6">
-        <v>0.02853322069426908</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="P6">
-        <v>0.02853322069426909</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="Q6">
-        <v>0.04100412057777778</v>
+        <v>0.02040575731444445</v>
       </c>
       <c r="R6">
-        <v>0.3690370852</v>
+        <v>0.18365181583</v>
       </c>
       <c r="S6">
-        <v>0.01528596145646945</v>
+        <v>0.005500343725101202</v>
       </c>
       <c r="T6">
-        <v>0.01528596145646946</v>
+        <v>0.005500343725101202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02312833333333333</v>
+        <v>0.09509666666666666</v>
       </c>
       <c r="H7">
-        <v>0.069385</v>
+        <v>0.28529</v>
       </c>
       <c r="I7">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="J7">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.151350666666667</v>
+        <v>1.921622333333333</v>
       </c>
       <c r="N7">
-        <v>3.454052</v>
+        <v>5.764867</v>
       </c>
       <c r="O7">
-        <v>0.08771067958196711</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="P7">
-        <v>0.08771067958196713</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="Q7">
-        <v>0.02662882200222222</v>
+        <v>0.1827398784922222</v>
       </c>
       <c r="R7">
-        <v>0.23965939802</v>
+        <v>1.64465890643</v>
       </c>
       <c r="S7">
-        <v>0.009926981508725596</v>
+        <v>0.04925728207494443</v>
       </c>
       <c r="T7">
-        <v>0.009926981508725598</v>
+        <v>0.04925728207494443</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02312833333333333</v>
+        <v>0.09509666666666666</v>
       </c>
       <c r="H8">
-        <v>0.069385</v>
+        <v>0.28529</v>
       </c>
       <c r="I8">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="J8">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>31.103307</v>
       </c>
       <c r="O8">
-        <v>0.7898237184085691</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="P8">
-        <v>0.7898237184085692</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="Q8">
-        <v>0.239789217355</v>
+        <v>0.9859402726700001</v>
       </c>
       <c r="R8">
-        <v>2.158102956195</v>
+        <v>8.873462454029999</v>
       </c>
       <c r="S8">
-        <v>0.08939122904033159</v>
+        <v>0.2657588399459335</v>
       </c>
       <c r="T8">
-        <v>0.0893912290403316</v>
+        <v>0.2657588399459335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,46 +974,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02312833333333333</v>
+        <v>0.09509666666666666</v>
       </c>
       <c r="H9">
-        <v>0.069385</v>
+        <v>0.28529</v>
       </c>
       <c r="I9">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="J9">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1322436666666667</v>
+        <v>0.1441973333333333</v>
       </c>
       <c r="N9">
-        <v>0.396731</v>
+        <v>0.432592</v>
       </c>
       <c r="O9">
-        <v>0.01007441278279348</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="P9">
-        <v>0.01007441278279349</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="Q9">
-        <v>0.003058575603888889</v>
+        <v>0.01371268574222222</v>
       </c>
       <c r="R9">
-        <v>0.027527180435</v>
+        <v>0.12341417168</v>
       </c>
       <c r="S9">
-        <v>0.001140209035920193</v>
+        <v>0.003696235518939875</v>
       </c>
       <c r="T9">
-        <v>0.001140209035920193</v>
+        <v>0.003696235518939875</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.02312833333333333</v>
+        <v>0.09509666666666666</v>
       </c>
       <c r="H10">
-        <v>0.069385</v>
+        <v>0.28529</v>
       </c>
       <c r="I10">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="J10">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.100777333333333</v>
+        <v>1.182384</v>
       </c>
       <c r="N10">
-        <v>3.302332</v>
+        <v>3.547152</v>
       </c>
       <c r="O10">
-        <v>0.08385796853240096</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="P10">
-        <v>0.08385796853240098</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="Q10">
-        <v>0.02545914509111111</v>
+        <v>0.11244077712</v>
       </c>
       <c r="R10">
-        <v>0.22913230582</v>
+        <v>1.01196699408</v>
       </c>
       <c r="S10">
-        <v>0.009490936644750227</v>
+        <v>0.03030825630959106</v>
       </c>
       <c r="T10">
-        <v>0.009490936644750229</v>
+        <v>0.03030825630959106</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,46 +1098,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.02312833333333333</v>
+        <v>0.09509666666666666</v>
       </c>
       <c r="H11">
-        <v>0.069385</v>
+        <v>0.28529</v>
       </c>
       <c r="I11">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="J11">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.3745466666666666</v>
+        <v>0.1863936666666667</v>
       </c>
       <c r="N11">
-        <v>1.12364</v>
+        <v>0.559181</v>
       </c>
       <c r="O11">
-        <v>0.02853322069426908</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="P11">
-        <v>0.02853322069426909</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="Q11">
-        <v>0.008662640155555556</v>
+        <v>0.01772541638777778</v>
       </c>
       <c r="R11">
-        <v>0.0779637614</v>
+        <v>0.15952874749</v>
       </c>
       <c r="S11">
-        <v>0.003229353090939114</v>
+        <v>0.004777861527065498</v>
       </c>
       <c r="T11">
-        <v>0.003229353090939115</v>
+        <v>0.004777861527065499</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.07174733333333334</v>
+        <v>0.06421433333333333</v>
       </c>
       <c r="H12">
-        <v>0.215242</v>
+        <v>0.192643</v>
       </c>
       <c r="I12">
-        <v>0.3510962275938453</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="J12">
-        <v>0.3510962275938452</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.151350666666667</v>
+        <v>1.921622333333333</v>
       </c>
       <c r="N12">
-        <v>3.454052</v>
+        <v>5.764867</v>
       </c>
       <c r="O12">
-        <v>0.08771067958196711</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="P12">
-        <v>0.08771067958196713</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="Q12">
-        <v>0.0826063400648889</v>
+        <v>0.1233956970534444</v>
       </c>
       <c r="R12">
-        <v>0.7434570605840001</v>
+        <v>1.110561273481</v>
       </c>
       <c r="S12">
-        <v>0.03079488872092117</v>
+        <v>0.03326113986036496</v>
       </c>
       <c r="T12">
-        <v>0.03079488872092117</v>
+        <v>0.03326113986036496</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.07174733333333334</v>
+        <v>0.06421433333333333</v>
       </c>
       <c r="H13">
-        <v>0.215242</v>
+        <v>0.192643</v>
       </c>
       <c r="I13">
-        <v>0.3510962275938453</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="J13">
-        <v>0.3510962275938452</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>31.103307</v>
       </c>
       <c r="O13">
-        <v>0.7898237184085691</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="P13">
-        <v>0.7898237184085692</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="Q13">
-        <v>0.7438597783660001</v>
+        <v>0.665759374489</v>
       </c>
       <c r="R13">
-        <v>6.694738005294001</v>
+        <v>5.991834370401</v>
       </c>
       <c r="S13">
-        <v>0.2773041279973922</v>
+        <v>0.1794545206761697</v>
       </c>
       <c r="T13">
-        <v>0.2773041279973922</v>
+        <v>0.1794545206761697</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,55 +1275,55 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.07174733333333334</v>
+        <v>0.06421433333333333</v>
       </c>
       <c r="H14">
-        <v>0.215242</v>
+        <v>0.192643</v>
       </c>
       <c r="I14">
-        <v>0.3510962275938453</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="J14">
-        <v>0.3510962275938452</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1322436666666667</v>
+        <v>0.1441973333333333</v>
       </c>
       <c r="N14">
-        <v>0.396731</v>
+        <v>0.432592</v>
       </c>
       <c r="O14">
-        <v>0.01007441278279348</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="P14">
-        <v>0.01007441278279349</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="Q14">
-        <v>0.009488130433555557</v>
+        <v>0.009259535628444443</v>
       </c>
       <c r="R14">
-        <v>0.08539317390200001</v>
+        <v>0.083335820656</v>
       </c>
       <c r="S14">
-        <v>0.003537088323262006</v>
+        <v>0.002495895050913577</v>
       </c>
       <c r="T14">
-        <v>0.003537088323262006</v>
+        <v>0.002495895050913577</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.07174733333333334</v>
+        <v>0.06421433333333333</v>
       </c>
       <c r="H15">
-        <v>0.215242</v>
+        <v>0.192643</v>
       </c>
       <c r="I15">
-        <v>0.3510962275938453</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="J15">
-        <v>0.3510962275938452</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.100777333333333</v>
+        <v>1.182384</v>
       </c>
       <c r="N15">
-        <v>3.302332</v>
+        <v>3.547152</v>
       </c>
       <c r="O15">
-        <v>0.08385796853240096</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="P15">
-        <v>0.08385796853240098</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="Q15">
-        <v>0.07897783826044445</v>
+        <v>0.075926000304</v>
       </c>
       <c r="R15">
-        <v>0.710800544344</v>
+        <v>0.6833340027360001</v>
       </c>
       <c r="S15">
-        <v>0.02944221640540937</v>
+        <v>0.02046574860755214</v>
       </c>
       <c r="T15">
-        <v>0.02944221640540937</v>
+        <v>0.02046574860755214</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,55 +1399,55 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.07174733333333334</v>
+        <v>0.06421433333333333</v>
       </c>
       <c r="H16">
-        <v>0.215242</v>
+        <v>0.192643</v>
       </c>
       <c r="I16">
-        <v>0.3510962275938453</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="J16">
-        <v>0.3510962275938452</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.3745466666666666</v>
+        <v>0.1863936666666667</v>
       </c>
       <c r="N16">
-        <v>1.12364</v>
+        <v>0.559181</v>
       </c>
       <c r="O16">
-        <v>0.02853322069426908</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="P16">
-        <v>0.02853322069426909</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="Q16">
-        <v>0.02687272454222222</v>
+        <v>0.01196914504255556</v>
       </c>
       <c r="R16">
-        <v>0.24185452088</v>
+        <v>0.107722305383</v>
       </c>
       <c r="S16">
-        <v>0.01001790614686052</v>
+        <v>0.003226266529350762</v>
       </c>
       <c r="T16">
-        <v>0.01001790614686052</v>
+        <v>0.003226266529350763</v>
       </c>
     </row>
   </sheetData>
